--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1599299498120605</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.94707172648878</v>
+        <v>-1.93961526088851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.131960102440434</v>
+        <v>0.1299831973253436</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1479749180294909</v>
+        <v>-0.1477281699021273</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1724899234010948</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.08983887893806</v>
+        <v>-2.082814587572698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06862467630490553</v>
+        <v>0.06765520437254216</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1203668686784983</v>
+        <v>-0.1204530115158619</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2014130332155126</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.302678119414321</v>
+        <v>-2.293838258247915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05578793348963625</v>
+        <v>0.05437314688954573</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1438356816917647</v>
+        <v>-0.1432049409164921</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2405386058303205</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.47271824017773</v>
+        <v>-2.463079002681551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008974255119237189</v>
+        <v>0.0008930453676509928</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1691018139049397</v>
+        <v>-0.1689076275088489</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2793803264217668</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.54323856296862</v>
+        <v>-2.533906665595577</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07430819160269245</v>
+        <v>-0.07296640740714735</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1719153265761208</v>
+        <v>-0.1722905589354843</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3047538094004358</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.341573800556129</v>
+        <v>-2.334361893011085</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1273020971103146</v>
+        <v>-0.1232066622153157</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.147493102159491</v>
+        <v>-0.148228966397309</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3079986623077202</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.034492835955984</v>
+        <v>-2.026212903232441</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1783161774066645</v>
+        <v>-0.1720496510004844</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1160436662813176</v>
+        <v>-0.1168656733564992</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.282051747143669</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.681349544159806</v>
+        <v>-1.671462098488173</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.107994421156138</v>
+        <v>-0.1025104805266849</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07324965673678364</v>
+        <v>-0.07375775347241988</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2227386010061921</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.250997449268286</v>
+        <v>-1.238794367324471</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008070641782558157</v>
+        <v>0.009940963387012199</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01054643142461866</v>
+        <v>-0.01069827642607317</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1303045177268213</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9395239299866419</v>
+        <v>-0.924716122248646</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07418745953126768</v>
+        <v>0.07439770645635853</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01616177638225352</v>
+        <v>-0.01577924378243544</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.007287624056424096</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5765559745867394</v>
+        <v>-0.5587390077333806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1470292587867027</v>
+        <v>0.1447880849671578</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02259766836697906</v>
+        <v>-0.0206733249831614</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1393201592105262</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.134716221315949</v>
+        <v>-0.1129717250980457</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01111338200401188</v>
+        <v>0.009717576029103168</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04608591392554795</v>
+        <v>0.04861179712282</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3031345120911989</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3171920235897479</v>
+        <v>0.3424581558029229</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1622133070120325</v>
+        <v>-0.1632937425993049</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1131809638951663</v>
+        <v>0.1174370040801651</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4793042540293929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8618454433261471</v>
+        <v>0.887641572996322</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1791031433276643</v>
+        <v>-0.1834059050515723</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1950371000638716</v>
+        <v>0.1991544356802341</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6682011250721892</v>
       </c>
       <c r="E16" t="n">
-        <v>1.562731309030232</v>
+        <v>1.586388468247225</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.513011761574211</v>
+        <v>-0.5182620945091186</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2601742255435814</v>
+        <v>0.2644390260171257</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8781607217806459</v>
       </c>
       <c r="E17" t="n">
-        <v>2.269298221856042</v>
+        <v>2.290387156481127</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6787783215755301</v>
+        <v>-0.6862844288108918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3701961494340064</v>
+        <v>0.3748274219783688</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.110503252170514</v>
       </c>
       <c r="E18" t="n">
-        <v>3.034078712114473</v>
+        <v>3.052673884600286</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9573452769842735</v>
+        <v>-0.9641739219054535</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4809962789568857</v>
+        <v>0.4860976869865207</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.359462187521122</v>
       </c>
       <c r="E19" t="n">
-        <v>3.664825327579394</v>
+        <v>3.680380679939936</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.197193217070209</v>
+        <v>-1.204550399400298</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6007143822190354</v>
+        <v>0.6068319837199428</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.611536233780012</v>
       </c>
       <c r="E20" t="n">
-        <v>4.328701894275126</v>
+        <v>4.339113497211395</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.457754859421866</v>
+        <v>-1.464449179918683</v>
       </c>
       <c r="G20" t="n">
-        <v>0.711526192126642</v>
+        <v>0.7201784371133669</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.849846966365274</v>
       </c>
       <c r="E21" t="n">
-        <v>4.853505960215621</v>
+        <v>4.861619447456801</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.731160544829248</v>
+        <v>-1.736240052137519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8595882089776022</v>
+        <v>0.8677177567477818</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.064451880321157</v>
       </c>
       <c r="E22" t="n">
-        <v>5.373859799575026</v>
+        <v>5.377853031103662</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.951121169868916</v>
+        <v>-1.955756822557551</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9461530002394881</v>
+        <v>0.9546826011865767</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.245903352707741</v>
       </c>
       <c r="E23" t="n">
-        <v>5.721897303197297</v>
+        <v>5.723770544897932</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.201926770877121</v>
+        <v>-2.202861201655303</v>
       </c>
       <c r="G23" t="n">
-        <v>1.05530181537155</v>
+        <v>1.065234522534002</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.387700234164748</v>
       </c>
       <c r="E24" t="n">
-        <v>6.146888101499001</v>
+        <v>6.144617726717637</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432842866766923</v>
+        <v>-2.430856471339241</v>
       </c>
       <c r="G24" t="n">
-        <v>1.176236138693426</v>
+        <v>1.184943865507606</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.485767401400417</v>
       </c>
       <c r="E25" t="n">
-        <v>6.439141547711922</v>
+        <v>6.432565491110469</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556879062257935</v>
+        <v>-2.555217527530481</v>
       </c>
       <c r="G25" t="n">
-        <v>1.250336499403225</v>
+        <v>1.258874860638859</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.536394108699578</v>
       </c>
       <c r="E26" t="n">
-        <v>6.605639591806787</v>
+        <v>6.594630829201335</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605519834382513</v>
+        <v>-2.604651835792468</v>
       </c>
       <c r="G26" t="n">
-        <v>1.31493632718548</v>
+        <v>1.321775192443296</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.541963293138968</v>
       </c>
       <c r="E27" t="n">
-        <v>6.711085724980304</v>
+        <v>6.697959892643034</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.69064063808249</v>
+        <v>-2.687817635098718</v>
       </c>
       <c r="G27" t="n">
-        <v>1.324991678387568</v>
+        <v>1.333474557795748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.505235186651329</v>
       </c>
       <c r="E28" t="n">
-        <v>6.896374588005163</v>
+        <v>6.879760700778713</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717153651365301</v>
+        <v>-2.715492846661892</v>
       </c>
       <c r="G28" t="n">
-        <v>1.365199942763103</v>
+        <v>1.372833074182374</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.433762656081626</v>
       </c>
       <c r="E29" t="n">
-        <v>6.860952361271627</v>
+        <v>6.84267109912536</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73870615125925</v>
+        <v>-2.736249620346296</v>
       </c>
       <c r="G29" t="n">
-        <v>1.351304665081925</v>
+        <v>1.358228213129014</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.336958101158336</v>
       </c>
       <c r="E30" t="n">
-        <v>6.796786167772372</v>
+        <v>6.777513532972376</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640295259811776</v>
+        <v>-2.640104723535913</v>
       </c>
       <c r="G30" t="n">
-        <v>1.334588574489111</v>
+        <v>1.341291655274473</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.222781032132681</v>
       </c>
       <c r="E31" t="n">
-        <v>6.822513675182273</v>
+        <v>6.79882293485919</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.540339637484121</v>
+        <v>-2.54154271711103</v>
       </c>
       <c r="G31" t="n">
-        <v>1.296217050611939</v>
+        <v>1.303267622842938</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.101008147055819</v>
       </c>
       <c r="E32" t="n">
-        <v>6.782850008744648</v>
+        <v>6.755941322429201</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.405926880211021</v>
+        <v>-2.408762293603566</v>
       </c>
       <c r="G32" t="n">
-        <v>1.250110191949134</v>
+        <v>1.256481841817859</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.975825686618296</v>
       </c>
       <c r="E33" t="n">
-        <v>6.617134550426511</v>
+        <v>6.587799264183973</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.371745694354757</v>
+        <v>-2.373587545021439</v>
       </c>
       <c r="G33" t="n">
-        <v>1.19211708177824</v>
+        <v>1.198241983519602</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.853457363791456</v>
       </c>
       <c r="E34" t="n">
-        <v>6.318569316316591</v>
+        <v>6.291605148173689</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.334033382190631</v>
+        <v>-2.336944718083903</v>
       </c>
       <c r="G34" t="n">
-        <v>1.142091454039436</v>
+        <v>1.148543406553161</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.73695486955134</v>
       </c>
       <c r="E35" t="n">
-        <v>6.123174000406461</v>
+        <v>6.095662314229469</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.296675861712596</v>
+        <v>-2.29849800173005</v>
       </c>
       <c r="G35" t="n">
-        <v>1.082357966544179</v>
+        <v>1.087779125105723</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.627388758363882</v>
       </c>
       <c r="E36" t="n">
-        <v>5.92639309885806</v>
+        <v>5.898106127144795</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.232242479412704</v>
+        <v>-2.235629790983612</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061089446003912</v>
+        <v>1.064646123153365</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.527321693300851</v>
       </c>
       <c r="E37" t="n">
-        <v>5.619983026355688</v>
+        <v>5.592867013211332</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.187972361248261</v>
+        <v>-2.190568326753897</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9555527898487582</v>
+        <v>0.9600278372473935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.43464899233145</v>
       </c>
       <c r="E38" t="n">
-        <v>5.314152592945407</v>
+        <v>5.285652454210869</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.141707817391637</v>
+        <v>-2.144096456068364</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8820875500585053</v>
+        <v>0.8861479437993224</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.350101380290673</v>
       </c>
       <c r="E39" t="n">
-        <v>4.999754597337672</v>
+        <v>4.970502533836316</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.083279612889653</v>
+        <v>-2.085238267403607</v>
       </c>
       <c r="G39" t="n">
-        <v>0.801205265966436</v>
+        <v>0.8057109743749803</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.273147462957501</v>
       </c>
       <c r="E40" t="n">
-        <v>4.709164145900296</v>
+        <v>4.678636000367486</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.10406631755992</v>
+        <v>-2.10401010570842</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7611532267366287</v>
+        <v>0.7648471484066277</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.20154715012343</v>
       </c>
       <c r="E41" t="n">
-        <v>4.387740398879109</v>
+        <v>4.358186105422935</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998277803109085</v>
+        <v>-1.999540014683675</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6815689253973773</v>
+        <v>0.6853781908665582</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.136585439011931</v>
       </c>
       <c r="E42" t="n">
-        <v>4.008609711112848</v>
+        <v>3.981692264508855</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.907781832362427</v>
+        <v>-1.909365254517018</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6025993043043986</v>
+        <v>0.6056201438044886</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.076131693807482</v>
       </c>
       <c r="E43" t="n">
-        <v>3.706914133896019</v>
+        <v>3.680466822777299</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855171919502714</v>
+        <v>-1.85701304014535</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5623282578609547</v>
+        <v>0.5654001990442267</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.019971176910716</v>
       </c>
       <c r="E44" t="n">
-        <v>3.404471012056646</v>
+        <v>3.380351017594835</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.759967293662876</v>
+        <v>-1.762462515850239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5136035329711497</v>
+        <v>0.5161060553989671</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9670174409636488</v>
       </c>
       <c r="E45" t="n">
-        <v>3.121732699252177</v>
+        <v>3.098014218015365</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677484796863171</v>
+        <v>-1.679619387172079</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4183923369149025</v>
+        <v>0.4215898422339926</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9151821313521048</v>
       </c>
       <c r="E46" t="n">
-        <v>2.826513895366619</v>
+        <v>2.803500617357717</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599570790539919</v>
+        <v>-1.600883373773646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3804982487634582</v>
+        <v>0.3836110712932755</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8651200066782402</v>
       </c>
       <c r="E47" t="n">
-        <v>2.49573416017889</v>
+        <v>2.474557622668351</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.477544351246043</v>
+        <v>-1.479827866460224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3168459921922025</v>
+        <v>0.3198084297686563</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8149935442559973</v>
       </c>
       <c r="E48" t="n">
-        <v>2.202003145297969</v>
+        <v>2.182483762370611</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.372917305051526</v>
+        <v>-1.376408280036888</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2891006983206645</v>
+        <v>0.2907213517015731</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7647796339418925</v>
       </c>
       <c r="E49" t="n">
-        <v>1.920339427888408</v>
+        <v>1.903547414794867</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.286059044123367</v>
+        <v>-1.290217261086275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2351752821310426</v>
+        <v>0.2365944488754059</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7149641426211154</v>
       </c>
       <c r="E50" t="n">
-        <v>1.786305553094899</v>
+        <v>1.769380675625085</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.164080786416491</v>
+        <v>-1.16909313151258</v>
       </c>
       <c r="G50" t="n">
-        <v>0.197301634652871</v>
+        <v>0.197780530426689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6653030298298785</v>
       </c>
       <c r="E51" t="n">
-        <v>1.509414732894519</v>
+        <v>1.496344382384704</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.088041481841966</v>
+        <v>-1.09304506664951</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1666055835896065</v>
+        <v>0.1669793559008791</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6178508592449846</v>
       </c>
       <c r="E52" t="n">
-        <v>1.349815416029198</v>
+        <v>1.337821120962383</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.005392539559897</v>
+        <v>-1.010610751436805</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1437981723615217</v>
+        <v>0.1445019155413397</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5733073191960888</v>
       </c>
       <c r="E53" t="n">
-        <v>1.106613745478445</v>
+        <v>1.095512999843266</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9315155662080077</v>
+        <v>-0.9378375744416424</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1003851024264425</v>
+        <v>0.1008274969979878</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5331080007816398</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9612352970185749</v>
+        <v>0.9512923695194867</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9390523344532784</v>
+        <v>-0.9448370449894586</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04958856929563792</v>
+        <v>0.04986159828863784</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4985826622677111</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7997262372503455</v>
+        <v>0.7905556751913481</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8927016477592908</v>
+        <v>-0.8989039320494711</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02142424162200911</v>
+        <v>0.02306971582046322</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4694649561318357</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6524891475707487</v>
+        <v>0.6458400885647505</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8432191579103042</v>
+        <v>-0.8496550498950297</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01515333507155625</v>
+        <v>0.0162177101298287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4468799536260345</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5086335292696965</v>
+        <v>0.5028137775793344</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8105097005296766</v>
+        <v>-0.8183005171427654</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0125831985114363</v>
+        <v>-0.0117115498011638</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4301461341259266</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3981794311443625</v>
+        <v>0.3934123741275456</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.805273968075678</v>
+        <v>-0.8122792788158579</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.028227613805523</v>
+        <v>-0.02714571817015966</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4184755985531875</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2522695251794017</v>
+        <v>0.2474046449404939</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7405164550996045</v>
+        <v>-0.7476838311778753</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09355600558514182</v>
+        <v>-0.09255149249859665</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.411317535626908</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1917987133982361</v>
+        <v>0.1875908548002372</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.723795984362518</v>
+        <v>-0.7305647673119707</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08068130151950892</v>
+        <v>-0.08001697963814547</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.4069073788678336</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03376310803827853</v>
+        <v>0.02956400972882511</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6962127558290709</v>
+        <v>-0.7026501078618874</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1372012231666756</v>
+        <v>-0.1363500151296758</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.4051435918633338</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05337840221951625</v>
+        <v>-0.05748551749924243</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7146298024477933</v>
+        <v>-0.7209532707295188</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1689966904423943</v>
+        <v>-0.1687032207761217</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.4049291514389839</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.147044867395582</v>
+        <v>-0.1509402757021264</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7484226155118751</v>
+        <v>-0.7549709311996006</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1841724302992993</v>
+        <v>-0.1840483262115721</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.4057159948522578</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.259689037657279</v>
+        <v>-0.2642721286146414</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7512478085677834</v>
+        <v>-0.757474913675509</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2175900110040176</v>
+        <v>-0.2170249723928359</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.4069187655233877</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4127239783058743</v>
+        <v>-0.4170238199336004</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7322379824241522</v>
+        <v>-0.738860760564514</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2379766624973758</v>
+        <v>-0.2376642122059213</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.4071990603669686</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.436331495887777</v>
+        <v>-0.4424709981100481</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7628420504576894</v>
+        <v>-0.7694356276362331</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2532020439893717</v>
+        <v>-0.2536984603402807</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.4070836304414131</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5233503621059356</v>
+        <v>-0.5285860945599341</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8032766222873149</v>
+        <v>-0.8098409985040405</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2679310091304586</v>
+        <v>-0.2689515827460038</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.4060054579485952</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5560247783323813</v>
+        <v>-0.5625073918560159</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7511821064036925</v>
+        <v>-0.7594970802814176</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3198050577523538</v>
+        <v>-0.3197685565500811</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.4037456317947312</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6365800116520869</v>
+        <v>-0.643583862344176</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7973634275191347</v>
+        <v>-0.8047687914362236</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3176704674434453</v>
+        <v>-0.3186472396162632</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.4008048586906743</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.746361027607512</v>
+        <v>-0.7530392875753283</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7931906100753175</v>
+        <v>-0.8026780025700423</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3578904122037072</v>
+        <v>-0.3579765550410708</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3967514555184343</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7743983310972318</v>
+        <v>-0.781383201164139</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.92277863843201</v>
+        <v>-0.930662898122917</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4029620967700587</v>
+        <v>-0.402414578735968</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3920102005269319</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8169543528029476</v>
+        <v>-0.8242297724399457</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9893217902232649</v>
+        <v>-0.9974863791476264</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4202841073205996</v>
+        <v>-0.4201687635214177</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3865659320776644</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.86919341344757</v>
+        <v>-0.874629172490023</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.024418426232528</v>
+        <v>-1.031318613510163</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.453603864803227</v>
+        <v>-0.4532665936942271</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3804003837001592</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8121916759304034</v>
+        <v>-0.816627302030584</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.049253844258885</v>
+        <v>-1.056463561731792</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4681021423459503</v>
+        <v>-0.4675998858026778</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3740933002185544</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7967253865034075</v>
+        <v>-0.8000572162468612</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.115598429509777</v>
+        <v>-1.121391900334502</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4570481182496806</v>
+        <v>-0.4561005470386809</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3674902216275431</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.713273417771339</v>
+        <v>-0.7172374483381562</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.158684448672492</v>
+        <v>-1.163610650931218</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4595696213026799</v>
+        <v>-0.4590819652403164</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3611090779118296</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5615349998274707</v>
+        <v>-0.5663458582870149</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14230854928486</v>
+        <v>-1.148653918287949</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4404619719369577</v>
+        <v>-0.4393523353878672</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3551554226328597</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4219003805572355</v>
+        <v>-0.4287713668730518</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.167275371639399</v>
+        <v>-1.172760772316943</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4534476396574997</v>
+        <v>-0.4516693010827729</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3496183749480926</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3189450894268086</v>
+        <v>-0.3256335697312613</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.25005717829774</v>
+        <v>-1.25400952847983</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3967495921432422</v>
+        <v>-0.3952880840042426</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3451572797187077</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1296980360274958</v>
+        <v>-0.1372377243689483</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.307670675964998</v>
+        <v>-1.310780578398633</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3743188733226119</v>
+        <v>-0.3732895394185213</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3416644491544734</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02928514054346155</v>
+        <v>0.02109719084964557</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30086247171709</v>
+        <v>-1.301998389131817</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3238742117817163</v>
+        <v>-0.322951461388262</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3388128176466735</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2414476487295864</v>
+        <v>0.2325866168658615</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289402554251548</v>
+        <v>-1.289770486370457</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2878168641286351</v>
+        <v>-0.2873379683548171</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3361427729943794</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4238689773039011</v>
+        <v>0.4149977251035398</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230222424982746</v>
+        <v>-1.231489746725654</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2699969771790944</v>
+        <v>-0.2696713864548218</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3325649865909323</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6297153174487549</v>
+        <v>0.6217784960265752</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.15233469952513</v>
+        <v>-1.154063396464766</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2455221910311919</v>
+        <v>-0.2448885301597375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3274413868199858</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7431143325734517</v>
+        <v>0.736968990158817</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.063632397858154</v>
+        <v>-1.066513072741517</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097305721306561</v>
+        <v>-0.2094035213582925</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3193410883493922</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9688333872836639</v>
+        <v>0.9620952653441202</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9984164297815352</v>
+        <v>-0.9999567805174439</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1809340436336638</v>
+        <v>-0.1800215135768459</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3064253717284026</v>
       </c>
       <c r="E87" t="n">
-        <v>1.11177939562408</v>
+        <v>1.105791738403263</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9432105514161864</v>
+        <v>-0.9435960041121862</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1508687333456719</v>
+        <v>-0.1504540796878538</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.28665729666138</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213344720971962</v>
+        <v>1.208903254679418</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8888266801260192</v>
+        <v>-0.8888894621939283</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1145617174690453</v>
+        <v>-0.114085741791409</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2581372716329096</v>
       </c>
       <c r="E89" t="n">
-        <v>1.33530983824602</v>
+        <v>1.331027517195385</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7934738594049539</v>
+        <v>-0.7915319954440453</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1129819454346821</v>
+        <v>-0.1123585048998641</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2194522047452679</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371340905033465</v>
+        <v>1.369991820597465</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6933218606090716</v>
+        <v>-0.6916968270838904</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07855985164341858</v>
+        <v>-0.0779422513009642</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.170219763985695</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415542400937635</v>
+        <v>1.414615270399908</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5885677902306453</v>
+        <v>-0.5855644713076461</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01641582475007163</v>
+        <v>-0.01743347826943499</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1120881239055661</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438583419860265</v>
+        <v>1.438742565102174</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4614910445903158</v>
+        <v>-0.4568904330558625</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02077844844570682</v>
+        <v>-0.02004988444834338</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0465876980723074</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409335736503182</v>
+        <v>1.410626419015545</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3533073212463448</v>
+        <v>-0.3479562449931644</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01405930713134499</v>
+        <v>-0.01361107236743602</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02293722241287681</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410160663674545</v>
+        <v>1.409998598336454</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2134931160609278</v>
+        <v>-0.209044349527929</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01653700874161705</v>
+        <v>-0.01662315157898067</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09362285986557016</v>
       </c>
       <c r="E95" t="n">
-        <v>1.334994467858384</v>
+        <v>1.336390273833292</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09700609922395909</v>
+        <v>-0.09362900798968726</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01881176366725281</v>
+        <v>-0.01921473694034361</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1621010971204293</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257273187883132</v>
+        <v>1.257725802791313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03036265603455217</v>
+        <v>0.03334699433236955</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03382397813797605</v>
+        <v>-0.03372323481970335</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.224177712733875</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174320555598154</v>
+        <v>1.17574410248679</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1318272380641613</v>
+        <v>0.1332975064917064</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05231110706506199</v>
+        <v>-0.05259873653897101</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2772417571947026</v>
       </c>
       <c r="E98" t="n">
-        <v>1.075614004412272</v>
+        <v>1.078523880257453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1929974128808721</v>
+        <v>0.1942910154894172</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05741689523896971</v>
+        <v>-0.05779650774260597</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3200452694996416</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9382307792982175</v>
+        <v>0.9408471854771259</v>
       </c>
       <c r="F99" t="n">
-        <v>0.194502722462599</v>
+        <v>0.1955846180979623</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05100728411988052</v>
+        <v>-0.05273452101142551</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3553890637006804</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8433232732448793</v>
+        <v>0.8463806139472422</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113180963255945</v>
+        <v>0.211948837100867</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04503422737997304</v>
+        <v>-0.04587959522460917</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3844727071280796</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6897670954278297</v>
+        <v>0.6940421162380104</v>
       </c>
       <c r="F101" t="n">
-        <v>0.197381937297871</v>
+        <v>0.1986623994735979</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04902015866815378</v>
+        <v>-0.05024951916069891</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4103119973570435</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6307665520742092</v>
+        <v>0.6335333432064811</v>
       </c>
       <c r="F102" t="n">
-        <v>0.206720404887323</v>
+        <v>0.207279603306141</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08118501811087242</v>
+        <v>-0.08224793312105395</v>
       </c>
     </row>
   </sheetData>
